--- a/전처리/raw_data_4_new.xlsx
+++ b/전처리/raw_data_4_new.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lab01\BMI\전처리\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\jupyter\BMI_prediction\전처리\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3C1073F-7CF1-48DE-9802-C77F6061E64C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA2DD8FA-691E-4FDB-AED0-340BA2D98404}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="38700" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -907,13 +907,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E871"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="18.25" customWidth="1"/>
+    <col min="5" max="6" width="27.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
